--- a/Data/Processing/2024-02-02/MAZDOCK.xlsx
+++ b/Data/Processing/2024-02-02/MAZDOCK.xlsx
@@ -3813,7 +3813,7 @@
         <v>45058</v>
       </c>
       <c r="B66">
-        <v>752.72</v>
+        <v>752.71</v>
       </c>
       <c r="C66">
         <v>758.3</v>
@@ -3843,7 +3843,7 @@
         <v>-2.14</v>
       </c>
       <c r="L66">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="M66">
         <v>0.6500000000000001</v>
@@ -6869,7 +6869,7 @@
         <v>1833.82</v>
       </c>
       <c r="D127">
-        <v>1784.81</v>
+        <v>1784.8</v>
       </c>
       <c r="E127">
         <v>1799.3</v>
@@ -7366,7 +7366,7 @@
         <v>1854.78</v>
       </c>
       <c r="C137">
-        <v>1890.19</v>
+        <v>1890.2</v>
       </c>
       <c r="D137">
         <v>1836.44</v>
@@ -7472,7 +7472,7 @@
         <v>1806.12</v>
       </c>
       <c r="E139">
-        <v>1819.32</v>
+        <v>1819.33</v>
       </c>
       <c r="F139">
         <v>1838.42</v>
@@ -7502,7 +7502,7 @@
         <v>3.22</v>
       </c>
       <c r="O139">
-        <v>1671.403636363636</v>
+        <v>1671.403863636363</v>
       </c>
       <c r="P139">
         <v>0</v>
@@ -7525,7 +7525,7 @@
         <v>1813.79</v>
       </c>
       <c r="F140">
-        <v>1819.32</v>
+        <v>1819.33</v>
       </c>
       <c r="G140">
         <v>579821</v>
@@ -7543,7 +7543,7 @@
         <v>-1.01</v>
       </c>
       <c r="L140">
-        <v>9.1</v>
+        <v>9.09</v>
       </c>
       <c r="M140">
         <v>0.2</v>
@@ -7552,7 +7552,7 @@
         <v>1.62</v>
       </c>
       <c r="O140">
-        <v>1686.256136363636</v>
+        <v>1686.256363636364</v>
       </c>
       <c r="P140">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>1.62</v>
       </c>
       <c r="O141">
-        <v>1698.875227272727</v>
+        <v>1698.875454545454</v>
       </c>
       <c r="P141">
         <v>0</v>
@@ -7652,7 +7652,7 @@
         <v>4.1</v>
       </c>
       <c r="O142">
-        <v>1712.795909090909</v>
+        <v>1712.796136363636</v>
       </c>
       <c r="P142">
         <v>0</v>
@@ -7702,7 +7702,7 @@
         <v>2.44</v>
       </c>
       <c r="O143">
-        <v>1726.379318181818</v>
+        <v>1726.379545454546</v>
       </c>
       <c r="P143">
         <v>0</v>
@@ -7752,7 +7752,7 @@
         <v>3.47</v>
       </c>
       <c r="O144">
-        <v>1740.781136363637</v>
+        <v>1740.781363636364</v>
       </c>
       <c r="P144">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>2.1</v>
       </c>
       <c r="O145">
-        <v>1754.745454545455</v>
+        <v>1754.745681818182</v>
       </c>
       <c r="P145">
         <v>0</v>
@@ -7852,7 +7852,7 @@
         <v>3.72</v>
       </c>
       <c r="O146">
-        <v>1768.886363636364</v>
+        <v>1768.886590909091</v>
       </c>
       <c r="P146">
         <v>0</v>
@@ -7902,7 +7902,7 @@
         <v>1.96</v>
       </c>
       <c r="O147">
-        <v>1782.447272727273</v>
+        <v>1782.4475</v>
       </c>
       <c r="P147">
         <v>0</v>
@@ -7952,7 +7952,7 @@
         <v>11.65</v>
       </c>
       <c r="O148">
-        <v>1800.326590909091</v>
+        <v>1800.326818181818</v>
       </c>
       <c r="P148">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>14.17</v>
       </c>
       <c r="O149">
-        <v>1820.326818181818</v>
+        <v>1820.327045454545</v>
       </c>
       <c r="P149">
         <v>0</v>
@@ -8052,7 +8052,7 @@
         <v>4.65</v>
       </c>
       <c r="O150">
-        <v>1838.875</v>
+        <v>1838.875227272727</v>
       </c>
       <c r="P150">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>12.28</v>
       </c>
       <c r="O151">
-        <v>1849.665227272727</v>
+        <v>1849.665454545455</v>
       </c>
       <c r="P151">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>6.89</v>
       </c>
       <c r="O152">
-        <v>1857.068863636364</v>
+        <v>1857.069090909091</v>
       </c>
       <c r="P152">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>2.6</v>
       </c>
       <c r="O153">
-        <v>1865.538181818182</v>
+        <v>1865.538409090909</v>
       </c>
       <c r="P153">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>9.26</v>
       </c>
       <c r="O154">
-        <v>1879.726363636363</v>
+        <v>1879.726590909091</v>
       </c>
       <c r="P154">
         <v>0</v>
@@ -8302,7 +8302,7 @@
         <v>7.78</v>
       </c>
       <c r="O155">
-        <v>1890.471590909091</v>
+        <v>1890.471818181818</v>
       </c>
       <c r="P155">
         <v>0</v>
@@ -8352,7 +8352,7 @@
         <v>6.15</v>
       </c>
       <c r="O156">
-        <v>1902.077727272727</v>
+        <v>1902.077954545455</v>
       </c>
       <c r="P156">
         <v>0</v>
@@ -8402,7 +8402,7 @@
         <v>4.01</v>
       </c>
       <c r="O157">
-        <v>1912.906590909091</v>
+        <v>1912.906818181818</v>
       </c>
       <c r="P157">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>3.58</v>
       </c>
       <c r="O158">
-        <v>1921.619545454546</v>
+        <v>1921.619772727273</v>
       </c>
       <c r="P158">
         <v>0</v>
@@ -8502,7 +8502,7 @@
         <v>3.5</v>
       </c>
       <c r="O159">
-        <v>1928.3625</v>
+        <v>1928.362727272727</v>
       </c>
       <c r="P159">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>6.43</v>
       </c>
       <c r="O160">
-        <v>1934.803863636364</v>
+        <v>1934.804090909091</v>
       </c>
       <c r="P160">
         <v>0</v>
@@ -8602,7 +8602,7 @@
         <v>2.59</v>
       </c>
       <c r="O161">
-        <v>1942.729090909091</v>
+        <v>1942.729318181818</v>
       </c>
       <c r="P161">
         <v>0</v>
@@ -8652,7 +8652,7 @@
         <v>2.23</v>
       </c>
       <c r="O162">
-        <v>1950.115681818182</v>
+        <v>1950.115909090909</v>
       </c>
       <c r="P162">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>2.4</v>
       </c>
       <c r="O163">
-        <v>1956.790227272727</v>
+        <v>1956.790454545455</v>
       </c>
       <c r="P163">
         <v>0</v>
@@ -8752,7 +8752,7 @@
         <v>1.68</v>
       </c>
       <c r="O164">
-        <v>1962.036818181818</v>
+        <v>1962.037045454545</v>
       </c>
       <c r="P164">
         <v>0</v>
@@ -8802,7 +8802,7 @@
         <v>4.86</v>
       </c>
       <c r="O165">
-        <v>1967.399545454545</v>
+        <v>1967.399772727273</v>
       </c>
       <c r="P165">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>2.57</v>
       </c>
       <c r="O166">
-        <v>1974.174772727273</v>
+        <v>1974.175</v>
       </c>
       <c r="P166">
         <v>0</v>
@@ -8902,7 +8902,7 @@
         <v>1.3</v>
       </c>
       <c r="O167">
-        <v>1981.937727272727</v>
+        <v>1981.937954545455</v>
       </c>
       <c r="P167">
         <v>0</v>
@@ -8952,7 +8952,7 @@
         <v>2.56</v>
       </c>
       <c r="O168">
-        <v>1987.162954545455</v>
+        <v>1987.163181818182</v>
       </c>
       <c r="P168">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>2.67</v>
       </c>
       <c r="O169">
-        <v>1994.592045454545</v>
+        <v>1994.592272727273</v>
       </c>
       <c r="P169">
         <v>0</v>
@@ -9052,7 +9052,7 @@
         <v>2.02</v>
       </c>
       <c r="O170">
-        <v>2002.473409090909</v>
+        <v>2002.473636363636</v>
       </c>
       <c r="P170">
         <v>0</v>
@@ -9102,7 +9102,7 @@
         <v>1.35</v>
       </c>
       <c r="O171">
-        <v>2009.8625</v>
+        <v>2009.862727272727</v>
       </c>
       <c r="P171">
         <v>0</v>
@@ -9152,7 +9152,7 @@
         <v>2.99</v>
       </c>
       <c r="O172">
-        <v>2017.510909090909</v>
+        <v>2017.511136363636</v>
       </c>
       <c r="P172">
         <v>0</v>
@@ -9202,7 +9202,7 @@
         <v>2.49</v>
       </c>
       <c r="O173">
-        <v>2025.955909090909</v>
+        <v>2025.956136363636</v>
       </c>
       <c r="P173">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>2.29</v>
       </c>
       <c r="O174">
-        <v>2035.380454545455</v>
+        <v>2035.380681818182</v>
       </c>
       <c r="P174">
         <v>0</v>
@@ -9302,7 +9302,7 @@
         <v>4.11</v>
       </c>
       <c r="O175">
-        <v>2041.785</v>
+        <v>2041.785227272727</v>
       </c>
       <c r="P175">
         <v>0</v>
@@ -9352,7 +9352,7 @@
         <v>1.38</v>
       </c>
       <c r="O176">
-        <v>2046.297045454546</v>
+        <v>2046.297272727273</v>
       </c>
       <c r="P176">
         <v>0</v>
@@ -9402,7 +9402,7 @@
         <v>4.3</v>
       </c>
       <c r="O177">
-        <v>2049.875909090909</v>
+        <v>2049.876136363636</v>
       </c>
       <c r="P177">
         <v>1</v>
@@ -9452,7 +9452,7 @@
         <v>7.86</v>
       </c>
       <c r="O178">
-        <v>2051.440681818182</v>
+        <v>2051.440909090909</v>
       </c>
       <c r="P178">
         <v>1</v>
@@ -9502,7 +9502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="O179">
-        <v>2051.279090909091</v>
+        <v>2051.279318181818</v>
       </c>
       <c r="P179">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>10.1</v>
       </c>
       <c r="O180">
-        <v>2052.114090909091</v>
+        <v>2052.114318181818</v>
       </c>
       <c r="P180">
         <v>0</v>
@@ -9602,7 +9602,7 @@
         <v>9.529999999999999</v>
       </c>
       <c r="O181">
-        <v>2056.351136363637</v>
+        <v>2056.351363636364</v>
       </c>
       <c r="P181">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>4.86</v>
       </c>
       <c r="O182">
-        <v>2058.985909090909</v>
+        <v>2058.986136363636</v>
       </c>
       <c r="P182">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>7.75</v>
       </c>
       <c r="O207">
-        <v>2019.744545454545</v>
+        <v>2019.744545454546</v>
       </c>
       <c r="P207">
         <v>1</v>
@@ -11302,7 +11302,7 @@
         <v>2.49</v>
       </c>
       <c r="O215">
-        <v>2012.120454545455</v>
+        <v>2012.120454545454</v>
       </c>
       <c r="P215">
         <v>0</v>
@@ -11602,7 +11602,7 @@
         <v>5.43</v>
       </c>
       <c r="O221">
-        <v>2019.914545454546</v>
+        <v>2019.914545454545</v>
       </c>
       <c r="P221">
         <v>0</v>
@@ -12494,7 +12494,7 @@
         <v>2.39</v>
       </c>
       <c r="O232">
-        <v>2105.072727272727</v>
+        <v>2105.072727272728</v>
       </c>
       <c r="P232">
         <v>0</v>
@@ -13293,7 +13293,7 @@
         <v>5.37</v>
       </c>
       <c r="O240">
-        <v>2167.739772727272</v>
+        <v>2167.739772727273</v>
       </c>
       <c r="P240">
         <v>0</v>
@@ -13721,7 +13721,7 @@
         <v>2.35</v>
       </c>
       <c r="O244">
-        <v>2197.235227272727</v>
+        <v>2197.235227272728</v>
       </c>
       <c r="P244">
         <v>0</v>
